--- a/anillos.xlsx
+++ b/anillos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/regina/Desktop/7Semestre/Redes/red_ibero/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Documents\GitHub\red_ibero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F740082A-F1AA-364E-BFA1-2E06F15CFC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39DCB20-3B69-4379-AAB0-9190313DC19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16520" xr2:uid="{73DE5C8D-3A31-544E-881E-C7850F3F99F6}"/>
+    <workbookView xWindow="4065" yWindow="4035" windowWidth="14955" windowHeight="11565" xr2:uid="{73DE5C8D-3A31-544E-881E-C7850F3F99F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Site 1</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>Anillo 17</t>
+  </si>
+  <si>
+    <t>Paseo interlomas</t>
+  </si>
+  <si>
+    <t>hipodromo de las americas</t>
+  </si>
+  <si>
+    <t>lo llame anillo x</t>
   </si>
 </sst>
 </file>
@@ -166,7 +175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -462,15 +471,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45CD6C4-6537-7144-85FE-674265B40855}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -490,87 +499,96 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>

--- a/anillos.xlsx
+++ b/anillos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Documents\GitHub\red_ibero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39DCB20-3B69-4379-AAB0-9190313DC19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79974A0-0E1A-4A6C-B653-FBFD5828478E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="4035" windowWidth="14955" windowHeight="11565" xr2:uid="{73DE5C8D-3A31-544E-881E-C7850F3F99F6}"/>
+    <workbookView xWindow="9405" yWindow="4035" windowWidth="14955" windowHeight="11565" xr2:uid="{73DE5C8D-3A31-544E-881E-C7850F3F99F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Site 1</t>
   </si>
@@ -113,7 +113,22 @@
     <t>hipodromo de las americas</t>
   </si>
   <si>
-    <t>lo llame anillo x</t>
+    <t>tec edomex</t>
+  </si>
+  <si>
+    <t>ford cuatitlan</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>kio tultitlan</t>
   </si>
 </sst>
 </file>
@@ -474,7 +489,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -510,17 +525,32 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">

--- a/anillos.xlsx
+++ b/anillos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Documents\GitHub\red_ibero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79974A0-0E1A-4A6C-B653-FBFD5828478E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D765F4C-5EF6-48C6-A526-B93744A48D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9405" yWindow="4035" windowWidth="14955" windowHeight="11565" xr2:uid="{73DE5C8D-3A31-544E-881E-C7850F3F99F6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Site 1</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>kio tultitlan</t>
+  </si>
+  <si>
+    <t>satelite</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -557,6 +560,9 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
